--- a/prep_and_checklists/Hamish & India/PREP REQ_Hamish & India_Friday, May 9, 2025_0.xlsx
+++ b/prep_and_checklists/Hamish & India/PREP REQ_Hamish & India_Friday, May 9, 2025_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Hamish &amp; India/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2962F0F3-7B96-594D-84DD-B61D7B643918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54665CC-1A6A-F44A-999C-AA08D889EF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="820" windowWidth="29940" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="1080" windowWidth="29940" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AM Prep" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -787,7 +787,7 @@
       <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="18"/>
